--- a/computer organization/pipe-lined hardwired/输出信号表.xlsx
+++ b/computer organization/pipe-lined hardwired/输出信号表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\HomeWork\computer organization\pipe-lined hardwired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571CF75E-7937-4ADE-B51E-0268B4B10CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AFE92-B7DA-4164-B5CA-82DCD253A232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6945" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6950" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
   </bookViews>
   <sheets>
     <sheet name="输出信号一览" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
   <si>
     <t>SBUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,18 +276,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!ST</t>
-  </si>
-  <si>
     <t>SST</t>
   </si>
   <si>
     <t>W2&amp;!ST</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>W1&amp;!ST</t>
   </si>
   <si>
@@ -301,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右侧为扩展指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,20 +348,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!C+W2&amp;C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>!Z+W2&amp;Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!C&amp;W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!Z&amp;W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!ST&amp;W1</t>
+  </si>
+  <si>
+    <t>ST&amp;W1</t>
   </si>
 </sst>
 </file>
@@ -759,17 +755,17 @@
       <selection activeCell="E7" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -789,7 +785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -809,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -823,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -837,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -851,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -862,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -873,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -890,37 +886,37 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.9140625" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -950,19 +946,19 @@
         <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
         <v>40</v>
       </c>
       <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
       </c>
       <c r="Q1" t="s">
         <v>61</v>
@@ -980,48 +976,48 @@
         <v>57</v>
       </c>
       <c r="V1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
         <v>86</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>62</v>
       </c>
       <c r="T2" t="s">
         <v>60</v>
@@ -1030,29 +1026,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>64</v>
-      </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>59</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
         <v>58</v>
@@ -1075,27 +1071,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -1104,67 +1100,67 @@
         <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -1173,146 +1169,149 @@
         <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="R11" t="s">
         <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1320,30 +1319,30 @@
         <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1360,191 +1359,194 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="N32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
       <c r="P33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
       <c r="R36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="R37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1552,7 +1554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>

--- a/computer organization/pipe-lined hardwired/输出信号表.xlsx
+++ b/computer organization/pipe-lined hardwired/输出信号表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\HomeWork\computer organization\pipe-lined hardwired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AFE92-B7DA-4164-B5CA-82DCD253A232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790163F9-6BF4-41DA-A098-6F55518CBF65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6950" activeTab="1" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6953" activeTab="2" xr2:uid="{6005AAD0-0933-48B5-8F40-74FA52248108}"/>
   </bookViews>
   <sheets>
     <sheet name="输出信号一览" sheetId="1" r:id="rId1"/>
     <sheet name="组合逻辑译码表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="88">
   <si>
     <t>SBUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,12 +412,225 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -425,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +647,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,17 +1026,17 @@
       <selection activeCell="E7" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -785,7 +1056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -805,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -819,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -833,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -847,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -858,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -869,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -885,36 +1156,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0739107-5A32-44E2-8FB0-BA045DEC7AFE}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.9296875" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>79</v>
       </c>
@@ -979,7 +1250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1026,12 +1297,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1048,7 +1319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1300,7 +1571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1311,7 +1582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1322,27 +1593,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1446,7 +1717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1457,7 +1728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1465,7 +1736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1473,7 +1744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1487,7 +1758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +1769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1506,7 +1777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1514,7 +1785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1530,7 +1801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1538,7 +1809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1546,7 +1817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1554,7 +1825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1567,4 +1838,947 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60747CC-FBF1-40D5-985B-8AFD86DAFA4D}">
+  <dimension ref="A1:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15"/>
+      <c r="B1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="U12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="5"/>
+      <c r="R22" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="R34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="R35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="S37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>